--- a/20191024_BOM.xlsx
+++ b/20191024_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takum\Documents\EAGLE\projects\Accelerometer_Board_cad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CD609D-2050-48AD-A921-25EEF98C8D42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3897FD5-E674-483F-AAFD-1AF51A8F0AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="228">
   <si>
     <t>Designator</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -299,334 +299,473 @@
     <t xml:space="preserve">(882 1574)            </t>
   </si>
   <si>
+    <t xml:space="preserve">LED-0603                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seeed-LED              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(235 270)             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC1      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LQFP48                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stm32l05x6             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(880.51181 941.73228) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC2      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGA14R80P3X6_300X500X100  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADXL345BCCZ            </t>
+  </si>
+  <si>
+    <t>(1428.74016 568.11024)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC3      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PQFN50P322X300X114-16N    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADXL372BCCZ-RL7        </t>
+  </si>
+  <si>
+    <t>(1423.93701 975.15748)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC4      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SON100P300X300X80-7N      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI7006-A20-IM          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(268.8189 577.83465)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC6      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MX25R1635FM1IL0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOIC127P600X175-8N        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MX25R1635FM1IL0        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(400 1360)            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC7      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">74AHC1G14DCK       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC70-5                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">74xx-little-us         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(340 1040)            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC8      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP5907MFX-2.5/NOPB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT95P280X145-5N          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP5907MFX-2.5_NOPB     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1215 1395)           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">470R               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R0603                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPL_Resistor           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(240 345)             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10K 1/10W          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(410 520)             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(415 615)             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100k               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(475 280)             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(550 280)             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(250 950)             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1152 199)            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1058 199)            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW1      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW4-SMD-4.2X3.2X2.5MM     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPL_Switch             </t>
+  </si>
+  <si>
+    <t>(1426.45669 169.84252)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW2      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW2-2.6-3.0X2.5X1.2+0.4MM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(310 830)             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW3      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_JS202011SCQN           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS202011SCQN           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1520 1350)           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP1      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPB1,27            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1,27                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">testpad                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(650 1130)            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP2      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(620 1070)            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP3      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1315 1530)           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP4      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(484 1650)            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP5      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPSB1,27           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(445 1588)            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP6      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(393 1653)            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP7      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(330 1590)            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP8      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1256 379)            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR2      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSS138W            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT323-R                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSS138W                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(375 270)             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X1       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8MHz               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2-SMD-5.0X3.2X1.3MM      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPL_Crystal Oscillator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(764.33071 519.33071) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2768KHZ          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2-SMD-L2.0X1.2X0.55MM    </t>
+  </si>
+  <si>
+    <t>(1020.51181 546.77165)</t>
+  </si>
+  <si>
+    <t>CN1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/product-detail/ja/molex/5055680871/WM17123CT-ND/7908450</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">D1       </t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">BLUE-0603          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED-0603                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seeed-LED              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(235 270)             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC1      </t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>LS Q976-NR-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.elecfans.com/web1/M00/9D/06/pIYBAF0tKaSAWUi0AAfr_aPAFns360.pdf?filename=LS+Q976-NR-1_OSRAM.pdf</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">STM32L051C6        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQFP48                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">stm32l05x6             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(880.51181 941.73228) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC2      </t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>STM32L051C6T6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/product-detail/ja/stmicroelectronics/STM32L051C6T6/497-15202-ND/5051347</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ADXL345BCCZ        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LGA14R80P3X6_300X500X100  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADXL345BCCZ            </t>
-  </si>
-  <si>
-    <t>(1428.74016 568.11024)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC3      </t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/product-detail/ja/analog-devices-inc/ADXL345BCCZ/ADXL345BCCZ-ND/2034829</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADXL345BCCZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ADXL372BCCZ-RL7    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PQFN50P322X300X114-16N    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADXL372BCCZ-RL7        </t>
-  </si>
-  <si>
-    <t>(1423.93701 975.15748)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC4      </t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>ADXL372BCCZ-RL7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/product-detail/ja/analog-devices-inc/ADXL372BCCZ-RL7/ADXL372BCCZ-RL7CT-ND/7019671</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">SI7006-A20-IM      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SON100P300X300X80-7N      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI7006-A20-IM          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(268.8189 577.83465)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC6      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MX25R1635FM1IL0    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOIC127P600X175-8N        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MX25R1635FM1IL0        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(400 1360)            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC7      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">74AHC1G14DCK       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC70-5                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">74xx-little-us         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(340 1040)            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC8      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP5907MFX-2.5/NOPB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT95P280X145-5N          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP5907MFX-2.5_NOPB     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1215 1395)           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">470R               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R0603                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPL_Resistor           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(240 345)             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10K 1/10W          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(410 520)             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(415 615)             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">100k               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(475 280)             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">100                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(550 280)             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(250 950)             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1152 199)            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1058 199)            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW1      </t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>SI7006-A20-IM1R</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/product-detail/ja/silicon-labs/SI7006-A20-IM1R/336-4348-1-ND/8038092</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MX25R1635FM1IL0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/products/ja?keywords=MX25R1635FM1IL0%20%20%20%20</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SN74LVC1G14MDBVREP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/product-detail/ja/texas-instruments/SN74LVC1G14MDBVREP/296-22346-1-ND/1666919</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LP5907MFX-2.5/NOPB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/product-detail/ja/texas-instruments/LP5907MFX-2.5-NOPB/296-40356-1-ND/5178233</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>SW3</t>
   </si>
   <si>
     <t xml:space="preserve">DHT-4235A          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW4-SMD-4.2X3.2X2.5MM     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPL_Switch             </t>
-  </si>
-  <si>
-    <t>(1426.45669 169.84252)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW2      </t>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t xml:space="preserve">B3U-1000P-2P-SMD   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW2-2.6-3.0X2.5X1.2+0.4MM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(310 830)             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW3      </t>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t xml:space="preserve">JS202011SCQN       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW_JS202011SCQN           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS202011SCQN           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1520 1350)           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP1      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPB1,27            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1,27                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">testpad                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(650 1130)            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP2      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(620 1070)            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP3      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1315 1530)           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP4      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(484 1650)            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP5      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPSB1,27           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(445 1588)            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP6      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(393 1653)            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP7      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(330 1590)            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP8      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1256 379)            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR2      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSS138W            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT323-R                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSS138W                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(375 270)             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X1       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8MHz               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2-SMD-5.0X3.2X1.3MM      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPL_Crystal Oscillator </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(764.33071 519.33071) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2768KHZ          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2-SMD-L2.0X1.2X0.55MM    </t>
-  </si>
-  <si>
-    <t>(1020.51181 546.77165)</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>JS202011SCQN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.elecfans.com/web1/M00/92/4C/pIYBAFzc22CAB1YZACiE1SvHNCI099.pdf?filename=JS202011SCQN_C%26K.pdf</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3U-1000P</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://file.elecfans.com/web1/M00/8E/E2/o4YBAFy5Qr-AJtbcAATeNIo2_qY182.pdf?filename=B3Useries_Omron.pdf</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1675,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
@@ -1702,68 +1841,166 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="4">
+        <v>5055680871</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>192</v>
+      </c>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A14" s="2"/>
@@ -1852,7 +2089,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{E7B8D7F2-4CB6-4A2B-BD59-5F6D68C2774A}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{8EABC0D9-2B4B-418F-87E2-889C62AD27EB}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{DFD2B7CD-A512-4DD8-B97C-B7178EB92178}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{2611C238-51E3-4A60-AC1E-D06B5D077F3C}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{5153AFC1-C60A-4ABA-824A-9EA80B753B10}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{CD11CC0D-6BB0-41B5-97F1-44BEEBF6FC2F}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{B30E4F06-7051-4841-971C-D1B51A80826D}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{CAA1DA37-5F4D-44F6-984B-147A2B6B52A0}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{16805C1C-CFBA-470B-B231-76EDA5AEBAB0}"/>
+    <hyperlink ref="D13" r:id="rId10" xr:uid="{7F17AC82-017D-4A31-9B3C-10A910DFA555}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{FDC057D4-AAE9-44CB-B709-28DAC7BB5CB7}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -1860,8 +2111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3D7229-35A3-487A-8273-DE58DF6C08F8}">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" x14ac:dyDescent="0.6"/>
@@ -2436,19 +2687,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A29" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="D29" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="E29" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>89</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>10</v>
@@ -2456,19 +2707,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A30" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>10</v>
@@ -2476,19 +2727,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A31" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>6</v>
@@ -2496,19 +2747,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A32" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>7</v>
@@ -2516,19 +2767,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A33" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>106</v>
+        <v>206</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>11</v>
@@ -2536,19 +2787,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A34" s="11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>10</v>
@@ -2556,19 +2807,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A35" s="12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>10</v>
@@ -2576,19 +2827,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A36" s="11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>8</v>
@@ -2596,19 +2847,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A37" s="12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>9</v>
@@ -2616,19 +2867,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A38" s="11" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>9</v>
@@ -2636,19 +2887,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A39" s="12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D39" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>134</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>9</v>
@@ -2656,19 +2907,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A40" s="11" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>10</v>
@@ -2676,19 +2927,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A41" s="12" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>10</v>
@@ -2696,19 +2947,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A42" s="11" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>11</v>
@@ -2716,19 +2967,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A43" s="12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>10</v>
@@ -2736,19 +2987,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A44" s="11" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>10</v>
@@ -2756,19 +3007,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A45" s="12" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>148</v>
+        <v>221</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>7</v>
@@ -2776,19 +3027,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A46" s="11" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>153</v>
+        <v>222</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>8</v>
@@ -2796,19 +3047,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A47" s="12" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>9</v>
@@ -2816,19 +3067,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A48" s="11" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>10</v>
@@ -2836,19 +3087,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A49" s="12" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>10</v>
@@ -2856,19 +3107,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A50" s="11" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>5</v>
@@ -2876,19 +3127,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A51" s="12" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B51" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E51" s="12" t="s">
         <v>162</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>171</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>5</v>
@@ -2896,19 +3147,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A52" s="11" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>5</v>
@@ -2916,19 +3167,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A53" s="12" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>5</v>
@@ -2936,19 +3187,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A54" s="11" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>5</v>
@@ -2956,19 +3207,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A55" s="12" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>5</v>
@@ -2976,19 +3227,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A56" s="11" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>9</v>
@@ -2996,19 +3247,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A57" s="12" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>8</v>
@@ -3016,19 +3267,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A58" s="11" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F58" s="11" t="s">
         <v>6</v>
